--- a/Dataset/WorldCupMatches.xlsx
+++ b/Dataset/WorldCupMatches.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data Analyst\Avijit Sir\Streamlit_FIFA\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snehasish\Downloads\Dataset-20220706T152123Z-001\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="WorldCupMatches" sheetId="1" r:id="rId1"/>
@@ -6356,11 +6356,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T853"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A843" workbookViewId="0">
-      <selection activeCell="A854" sqref="A854:XFD1189"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
